--- a/docs/IssueLog/IssueLog.xlsx
+++ b/docs/IssueLog/IssueLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t xml:space="preserve">S.No </t>
   </si>
@@ -122,9 +122,6 @@
     <t>11-20-2015</t>
   </si>
   <si>
-    <t>Est: Jan End</t>
-  </si>
-  <si>
     <t>Est: Feb End</t>
   </si>
   <si>
@@ -168,6 +165,15 @@
   </si>
   <si>
     <t>Tae-Hyung</t>
+  </si>
+  <si>
+    <t>01-30-2016</t>
+  </si>
+  <si>
+    <t>Re-planning is not working properly</t>
+  </si>
+  <si>
+    <t>Initial waypoints in the list have to be discarded</t>
   </si>
 </sst>
 </file>
@@ -191,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -299,11 +305,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -330,6 +347,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,6 +362,52 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -364,64 +431,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -486,6 +495,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -493,18 +511,21 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -521,17 +542,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H11" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:H11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H12" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:H12"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="S.No " dataDxfId="8"/>
-    <tableColumn id="2" name="Issue" dataDxfId="7"/>
-    <tableColumn id="3" name="Solution" dataDxfId="6"/>
-    <tableColumn id="4" name="Status" dataDxfId="3"/>
-    <tableColumn id="8" name="Assigned To" dataDxfId="2"/>
-    <tableColumn id="7" name="Severity" dataDxfId="0"/>
+    <tableColumn id="1" name="S.No " dataDxfId="7"/>
+    <tableColumn id="2" name="Issue" dataDxfId="6"/>
+    <tableColumn id="3" name="Solution" dataDxfId="5"/>
+    <tableColumn id="4" name="Status" dataDxfId="4"/>
+    <tableColumn id="8" name="Assigned To" dataDxfId="3"/>
+    <tableColumn id="7" name="Severity" dataDxfId="2"/>
     <tableColumn id="5" name="Start Date" dataDxfId="1"/>
-    <tableColumn id="6" name="End Date" dataDxfId="4"/>
+    <tableColumn id="6" name="End Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -800,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,10 +852,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>4</v>
@@ -857,10 +878,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>28</v>
@@ -883,10 +904,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>29</v>
@@ -909,10 +930,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="10">
         <v>42196</v>
@@ -935,16 +956,16 @@
         <v>26</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -958,19 +979,19 @@
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -987,16 +1008,16 @@
         <v>26</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1004,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -1013,16 +1034,16 @@
         <v>26</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1039,16 +1060,16 @@
         <v>26</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1065,16 +1086,16 @@
         <v>26</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="10">
         <v>42289</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1091,16 +1112,42 @@
         <v>26</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="14">
+        <v>42431</v>
+      </c>
+      <c r="H12" s="15">
+        <v>42645</v>
       </c>
     </row>
   </sheetData>

--- a/docs/IssueLog/IssueLog.xlsx
+++ b/docs/IssueLog/IssueLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t xml:space="preserve">S.No </t>
   </si>
@@ -125,9 +125,6 @@
     <t>Est: Feb End</t>
   </si>
   <si>
-    <t>Est: Feb Mid</t>
-  </si>
-  <si>
     <t>Est: Mar End</t>
   </si>
   <si>
@@ -174,6 +171,12 @@
   </si>
   <si>
     <t>Initial waypoints in the list have to be discarded</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02-15-2016</t>
+  </si>
+  <si>
+    <t>02-15-2016</t>
   </si>
 </sst>
 </file>
@@ -824,7 +827,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,10 +855,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>4</v>
@@ -878,10 +881,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>28</v>
@@ -904,10 +907,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>29</v>
@@ -930,10 +933,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="10">
         <v>42196</v>
@@ -956,16 +959,16 @@
         <v>26</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -982,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1005,19 +1008,19 @@
         <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1025,7 +1028,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -1034,16 +1037,16 @@
         <v>26</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1057,19 +1060,19 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1086,16 +1089,16 @@
         <v>26</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="10">
         <v>42289</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1112,16 +1115,16 @@
         <v>26</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1129,19 +1132,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>49</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="14">
         <v>42431</v>

--- a/docs/IssueLog/IssueLog.xlsx
+++ b/docs/IssueLog/IssueLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t xml:space="preserve">S.No </t>
   </si>
@@ -122,15 +122,6 @@
     <t>11-20-2015</t>
   </si>
   <si>
-    <t>Est: Feb End</t>
-  </si>
-  <si>
-    <t>Est: Mar End</t>
-  </si>
-  <si>
-    <t>Est: Mar Mid</t>
-  </si>
-  <si>
     <t>Severity</t>
   </si>
   <si>
@@ -177,6 +168,27 @@
   </si>
   <si>
     <t>02-15-2016</t>
+  </si>
+  <si>
+    <t>03-31-2016</t>
+  </si>
+  <si>
+    <t>03-15-2016</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Fix waypoint fixing hack</t>
+  </si>
+  <si>
+    <t>Boat is going back to complete initial waypoints</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
   </si>
 </sst>
 </file>
@@ -192,12 +204,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -323,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -354,6 +372,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,8 +575,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H12" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:H13"/>
   <tableColumns count="8">
     <tableColumn id="1" name="S.No " dataDxfId="7"/>
     <tableColumn id="2" name="Issue" dataDxfId="6"/>
@@ -824,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,10 +885,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>4</v>
@@ -881,10 +911,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>28</v>
@@ -907,10 +937,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>29</v>
@@ -933,10 +963,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G4" s="10">
         <v>42196</v>
@@ -956,19 +986,19 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -985,16 +1015,16 @@
         <v>8</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1011,16 +1041,16 @@
         <v>8</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1028,25 +1058,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1063,16 +1093,16 @@
         <v>8</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1086,19 +1116,19 @@
         <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G10" s="10">
         <v>42289</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1112,19 +1142,19 @@
         <v>17</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1132,25 +1162,51 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G12" s="14">
         <v>42431</v>
       </c>
       <c r="H12" s="15">
         <v>42645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="21">
+        <v>42525</v>
       </c>
     </row>
   </sheetData>

--- a/docs/IssueLog/IssueLog.xlsx
+++ b/docs/IssueLog/IssueLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t xml:space="preserve">S.No </t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Enabled debugging by changing config parameters of the library</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>12-15-2015</t>
@@ -213,7 +210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,7 +854,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,10 +882,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>4</v>
@@ -911,13 +908,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="11">
         <v>42288</v>
@@ -937,16 +934,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -963,16 +960,16 @@
         <v>8</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="10">
         <v>42196</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -989,16 +986,16 @@
         <v>8</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1015,16 +1012,16 @@
         <v>8</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1041,16 +1038,16 @@
         <v>8</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1058,7 +1055,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -1067,16 +1064,16 @@
         <v>8</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1093,16 +1090,16 @@
         <v>8</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1119,16 +1116,16 @@
         <v>8</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="10">
         <v>42289</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1145,16 +1142,16 @@
         <v>8</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1162,19 +1159,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="14">
         <v>42431</v>
@@ -1188,22 +1185,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>54</v>
       </c>
       <c r="H13" s="21">
         <v>42525</v>
